--- a/DataFiles/BG_3C.xlsx
+++ b/DataFiles/BG_3C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhil\MATLAB\Projects\HSDM\DSS_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhil\MATLAB\Projects\HSDM\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5751AB5E-E389-4D13-A9C7-67599D5F12F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D0EE4F-1CDB-4804-9F92-2AB4C75436D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{9D6E8F32-5D56-4B43-815C-43CA06F88D0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D6E8F32-5D56-4B43-815C-43CA06F88D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Run Details" sheetId="2" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E82D3CA-F7E2-457C-B93F-D3C4EADB1B96}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FDB07A-E555-440E-B386-72106B177A85}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AF1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,139 +617,139 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="C2">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="D2">
-        <v>100.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>93.875603722072242</v>
-      </c>
-      <c r="C3" s="1">
-        <v>92.30979815769652</v>
-      </c>
-      <c r="D3" s="1">
-        <v>93.542107213261403</v>
+      <c r="B3">
+        <v>92.45</v>
+      </c>
+      <c r="C3">
+        <v>91.08</v>
+      </c>
+      <c r="D3">
+        <v>90.94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>91.902330707774581</v>
-      </c>
-      <c r="C4" s="1">
-        <v>89.138383453213152</v>
-      </c>
-      <c r="D4" s="1">
-        <v>91.122118476970627</v>
+      <c r="B4">
+        <v>87.44</v>
+      </c>
+      <c r="C4">
+        <v>83.84</v>
+      </c>
+      <c r="D4">
+        <v>84.78</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>89.48364019617209</v>
-      </c>
-      <c r="C5" s="1">
-        <v>86.079350011157345</v>
-      </c>
-      <c r="D5" s="1">
-        <v>88.602428883652365</v>
+      <c r="B5" s="2">
+        <v>83.87</v>
+      </c>
+      <c r="C5" s="2">
+        <v>79.38</v>
+      </c>
+      <c r="D5" s="2">
+        <v>79.77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
-        <v>84.922917829708908</v>
-      </c>
-      <c r="C6" s="1">
-        <v>80.331492785652983</v>
-      </c>
-      <c r="D6" s="1">
-        <v>83.772139284799721</v>
+      <c r="B6">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="C6">
+        <v>71.39</v>
+      </c>
+      <c r="D6">
+        <v>71.94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40</v>
       </c>
-      <c r="B7" s="1">
-        <v>82.839892768055549</v>
-      </c>
-      <c r="C7" s="1">
-        <v>77.546487081095691</v>
-      </c>
-      <c r="D7" s="1">
-        <v>81.080974326479804</v>
+      <c r="B7">
+        <v>71.38</v>
+      </c>
+      <c r="C7">
+        <v>61.58</v>
+      </c>
+      <c r="D7">
+        <v>61.76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="1">
-        <v>79.312274390885776</v>
-      </c>
-      <c r="C8" s="1">
-        <v>72.325762293366026</v>
-      </c>
-      <c r="D8" s="1">
-        <v>76.791605051221183</v>
+      <c r="B8">
+        <v>66.930000000000007</v>
+      </c>
+      <c r="C8">
+        <v>56.2</v>
+      </c>
+      <c r="D8">
+        <v>54.73</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>80</v>
       </c>
-      <c r="B9" s="1">
-        <v>77.52551811605359</v>
-      </c>
-      <c r="C9" s="1">
-        <v>69.562346814717998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>74.580958629855033</v>
+      <c r="B9" s="2">
+        <v>62.86</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50.88</v>
+      </c>
+      <c r="D9" s="2">
+        <v>48.59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10" s="1">
-        <v>75.402273177415864</v>
-      </c>
-      <c r="C10" s="1">
-        <v>66.55332583663494</v>
-      </c>
-      <c r="D10" s="1">
-        <v>72.077527815925293</v>
+      <c r="B10">
+        <v>58.8</v>
+      </c>
+      <c r="C10">
+        <v>46.04</v>
+      </c>
+      <c r="D10">
+        <v>43.22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>120</v>
       </c>
-      <c r="B11" s="1">
-        <v>73.512262364594605</v>
-      </c>
-      <c r="C11" s="1">
-        <v>63.757458300254306</v>
-      </c>
-      <c r="D11" s="1">
-        <v>69.75256448455805</v>
+      <c r="B11">
+        <v>56.89</v>
+      </c>
+      <c r="C11">
+        <v>43.36</v>
+      </c>
+      <c r="D11">
+        <v>39.71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,10 +1198,10 @@
         <v>100</v>
       </c>
       <c r="C2">
+        <v>100.2</v>
+      </c>
+      <c r="D2">
         <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>92.664373435105006</v>
+        <v>92.66</v>
       </c>
       <c r="C3" s="1">
-        <v>92.368807568762449</v>
+        <v>91.15</v>
       </c>
       <c r="D3" s="1">
-        <v>91.148322140689743</v>
+        <v>92.37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,13 +1223,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>85.6454724007328</v>
+        <v>85.65</v>
       </c>
       <c r="C4" s="1">
-        <v>84.951920164840701</v>
+        <v>83.26</v>
       </c>
       <c r="D4" s="1">
-        <v>83.264157374775479</v>
+        <v>84.95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>85.769936067368377</v>
+        <v>85.77</v>
       </c>
       <c r="C5" s="1">
-        <v>84.52128599269048</v>
+        <v>82.26</v>
       </c>
       <c r="D5" s="1">
-        <v>82.259360043522861</v>
+        <v>84.52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,13 +1251,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>81.687920000432797</v>
+        <v>81.69</v>
       </c>
       <c r="C6" s="1">
-        <v>79.680614061284587</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="D6" s="1">
-        <v>77.065593689668916</v>
+        <v>79.680000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,13 +1265,13 @@
         <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>76.259473874471894</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="C7" s="1">
-        <v>73.435663802195052</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="D7" s="1">
-        <v>70.040303439938597</v>
+        <v>73.44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,13 +1279,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="1">
-        <v>72.672549255888754</v>
+        <v>72.67</v>
       </c>
       <c r="C8" s="1">
-        <v>68.589456942773211</v>
+        <v>65.48</v>
       </c>
       <c r="D8" s="1">
-        <v>65.475481536076302</v>
+        <v>68.59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,13 +1293,13 @@
         <v>80</v>
       </c>
       <c r="B9" s="1">
-        <v>70.157277902574492</v>
+        <v>70.16</v>
       </c>
       <c r="C9" s="1">
-        <v>65.176922233301553</v>
+        <v>61.42</v>
       </c>
       <c r="D9" s="1">
-        <v>61.424893130257452</v>
+        <v>65.180000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,13 +1307,13 @@
         <v>100</v>
       </c>
       <c r="B10" s="1">
-        <v>66.547237329672313</v>
+        <v>66.55</v>
       </c>
       <c r="C10" s="1">
-        <v>60.844205741177831</v>
+        <v>57.63</v>
       </c>
       <c r="D10" s="1">
-        <v>57.626112514737606</v>
+        <v>60.84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,13 +1321,13 @@
         <v>120</v>
       </c>
       <c r="B11" s="1">
-        <v>64.972678353858299</v>
+        <v>64.97</v>
       </c>
       <c r="C11" s="1">
-        <v>58.587716224128926</v>
+        <v>55.08</v>
       </c>
       <c r="D11" s="1">
-        <v>55.082359043113762</v>
+        <v>58.59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90ACE66-B3B8-4265-BEE8-763B852FD46A}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
